--- a/help.xlsx
+++ b/help.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_semesterwindesheim\koemelk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037D8838-A993-4691-81F0-18B5D103FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C67FF2-92E1-4FE8-88E4-BFE6FF5F85A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -926,11 +926,17 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
